--- a/src/test/resources/TestData/OrangeHrmData.xlsx
+++ b/src/test/resources/TestData/OrangeHrmData.xlsx
@@ -673,15 +673,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -695,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -709,7 +709,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -723,7 +723,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -737,7 +737,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -751,7 +751,7 @@
         <v>25436</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -765,6 +765,12 @@
         <v>15478</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
